--- a/inputs/lsib_extension/adm0_points.xlsx
+++ b/inputs/lsib_extension/adm0_points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/computer/GitHub/fieldmaps/adm0-generator/inputs/lsib_extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3942D3-832D-784D-82B9-285DC6E42B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77389BF3-F42E-EC4B-9321-30F3621DEE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="25700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="adm0_points" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3166" uniqueCount="1353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3165" uniqueCount="1353">
   <si>
     <t>name</t>
   </si>
@@ -3654,9 +3654,6 @@
     <t>Clipperton Island (Fr.)</t>
   </si>
   <si>
-    <t>iso_grp</t>
-  </si>
-  <si>
     <t>Hong Kong, Special Administrative Region of China</t>
   </si>
   <si>
@@ -4096,6 +4093,9 @@
   </si>
   <si>
     <t>Joint sovereignty</t>
+  </si>
+  <si>
+    <t>iso3_grp</t>
   </si>
 </sst>
 </file>
@@ -4461,7 +4461,7 @@
     <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9.5" bestFit="1" customWidth="1"/>
@@ -4505,52 +4505,52 @@
         <v>757</v>
       </c>
       <c r="G1" t="s">
-        <v>1205</v>
+        <v>1352</v>
       </c>
       <c r="H1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I1" t="s">
         <v>1325</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>1326</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>1327</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>1328</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>1329</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>1330</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>1331</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>1332</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>1333</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>1334</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>1335</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>1336</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>1337</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>1338</v>
-      </c>
-      <c r="V1" t="s">
-        <v>1339</v>
       </c>
       <c r="W1" t="s">
         <v>758</v>
@@ -4574,7 +4574,7 @@
         <v>1195</v>
       </c>
       <c r="AD1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.15">
@@ -4603,13 +4603,13 @@
         <v>5</v>
       </c>
       <c r="S2" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T2">
         <v>19</v>
       </c>
       <c r="U2" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V2">
         <v>419</v>
@@ -4653,13 +4653,13 @@
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T3">
         <v>142</v>
       </c>
       <c r="U3" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V3">
         <v>34</v>
@@ -4700,13 +4700,13 @@
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V4">
         <v>202</v>
@@ -4753,13 +4753,13 @@
         <v>3</v>
       </c>
       <c r="S5" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="T5">
         <v>19</v>
       </c>
       <c r="U5" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V5">
         <v>419</v>
@@ -4806,13 +4806,13 @@
         <v>5</v>
       </c>
       <c r="S6" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T6">
         <v>150</v>
       </c>
       <c r="U6" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V6">
         <v>154</v>
@@ -4847,13 +4847,13 @@
         <v>1</v>
       </c>
       <c r="S7" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T7">
         <v>150</v>
       </c>
       <c r="U7" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V7">
         <v>39</v>
@@ -4888,13 +4888,13 @@
         <v>1</v>
       </c>
       <c r="S8" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T8">
         <v>150</v>
       </c>
       <c r="U8" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V8">
         <v>39</v>
@@ -4929,13 +4929,13 @@
         <v>1</v>
       </c>
       <c r="S9" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T9">
         <v>142</v>
       </c>
       <c r="U9" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V9">
         <v>145</v>
@@ -4970,13 +4970,13 @@
         <v>1</v>
       </c>
       <c r="S10" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T10">
         <v>19</v>
       </c>
       <c r="U10" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V10">
         <v>419</v>
@@ -5017,13 +5017,13 @@
         <v>1</v>
       </c>
       <c r="S11" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T11">
         <v>142</v>
       </c>
       <c r="U11" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V11">
         <v>145</v>
@@ -5064,13 +5064,13 @@
         <v>3</v>
       </c>
       <c r="S12" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="T12">
         <v>9</v>
       </c>
       <c r="U12" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V12">
         <v>61</v>
@@ -5113,13 +5113,13 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B14" t="s">
         <v>257</v>
       </c>
       <c r="C14" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D14">
         <v>260</v>
@@ -5137,13 +5137,13 @@
         <v>5</v>
       </c>
       <c r="S14" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T14">
         <v>2</v>
       </c>
       <c r="U14" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V14">
         <v>202</v>
@@ -5163,13 +5163,13 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B15" t="s">
         <v>257</v>
       </c>
       <c r="C15" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D15">
         <v>260</v>
@@ -5187,13 +5187,13 @@
         <v>5</v>
       </c>
       <c r="S15" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T15">
         <v>2</v>
       </c>
       <c r="U15" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V15">
         <v>202</v>
@@ -5213,13 +5213,13 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B16" t="s">
         <v>257</v>
       </c>
       <c r="C16" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D16">
         <v>260</v>
@@ -5237,13 +5237,13 @@
         <v>5</v>
       </c>
       <c r="S16" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T16">
         <v>2</v>
       </c>
       <c r="U16" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V16">
         <v>202</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B17" t="s">
         <v>257</v>
@@ -5287,13 +5287,13 @@
         <v>5</v>
       </c>
       <c r="S17" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T17">
         <v>2</v>
       </c>
       <c r="U17" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V17">
         <v>202</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B18" t="s">
         <v>257</v>
@@ -5337,13 +5337,13 @@
         <v>5</v>
       </c>
       <c r="S18" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T18">
         <v>2</v>
       </c>
       <c r="U18" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V18">
         <v>202</v>
@@ -5363,7 +5363,7 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B19" t="s">
         <v>257</v>
@@ -5387,13 +5387,13 @@
         <v>5</v>
       </c>
       <c r="S19" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T19">
         <v>2</v>
       </c>
       <c r="U19" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V19">
         <v>202</v>
@@ -5413,7 +5413,7 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B20" t="s">
         <v>257</v>
@@ -5437,13 +5437,13 @@
         <v>5</v>
       </c>
       <c r="S20" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T20">
         <v>2</v>
       </c>
       <c r="U20" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V20">
         <v>202</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B21" t="s">
         <v>257</v>
@@ -5487,13 +5487,13 @@
         <v>5</v>
       </c>
       <c r="S21" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T21">
         <v>2</v>
       </c>
       <c r="U21" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V21">
         <v>202</v>
@@ -5534,13 +5534,13 @@
         <v>1</v>
       </c>
       <c r="S22" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T22">
         <v>19</v>
       </c>
       <c r="U22" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V22">
         <v>419</v>
@@ -5584,13 +5584,13 @@
         <v>1</v>
       </c>
       <c r="S23" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T23">
         <v>9</v>
       </c>
       <c r="U23" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V23">
         <v>53</v>
@@ -5610,7 +5610,7 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D24">
         <v>36</v>
@@ -5625,13 +5625,13 @@
         <v>5</v>
       </c>
       <c r="S24" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T24">
         <v>9</v>
       </c>
       <c r="U24" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V24">
         <v>53</v>
@@ -5651,7 +5651,7 @@
         <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D25">
         <v>36</v>
@@ -5666,13 +5666,13 @@
         <v>5</v>
       </c>
       <c r="S25" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T25">
         <v>9</v>
       </c>
       <c r="U25" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V25">
         <v>53</v>
@@ -5707,13 +5707,13 @@
         <v>1</v>
       </c>
       <c r="S26" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T26">
         <v>150</v>
       </c>
       <c r="U26" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V26">
         <v>155</v>
@@ -5748,13 +5748,13 @@
         <v>1</v>
       </c>
       <c r="S27" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T27">
         <v>142</v>
       </c>
       <c r="U27" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V27">
         <v>145</v>
@@ -5792,13 +5792,13 @@
         <v>1</v>
       </c>
       <c r="S28" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T28">
         <v>2</v>
       </c>
       <c r="U28" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V28">
         <v>202</v>
@@ -5845,13 +5845,13 @@
         <v>1</v>
       </c>
       <c r="S29" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T29">
         <v>150</v>
       </c>
       <c r="U29" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V29">
         <v>155</v>
@@ -5886,13 +5886,13 @@
         <v>1</v>
       </c>
       <c r="S30" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T30">
         <v>2</v>
       </c>
       <c r="U30" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V30">
         <v>202</v>
@@ -5939,13 +5939,13 @@
         <v>5</v>
       </c>
       <c r="S31" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T31">
         <v>19</v>
       </c>
       <c r="U31" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V31">
         <v>419</v>
@@ -5992,13 +5992,13 @@
         <v>5</v>
       </c>
       <c r="S32" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T32">
         <v>19</v>
       </c>
       <c r="U32" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V32">
         <v>419</v>
@@ -6045,13 +6045,13 @@
         <v>5</v>
       </c>
       <c r="S33" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T33">
         <v>19</v>
       </c>
       <c r="U33" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V33">
         <v>419</v>
@@ -6095,13 +6095,13 @@
         <v>1</v>
       </c>
       <c r="S34" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T34">
         <v>2</v>
       </c>
       <c r="U34" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V34">
         <v>202</v>
@@ -6148,13 +6148,13 @@
         <v>1</v>
       </c>
       <c r="S35" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T35">
         <v>142</v>
       </c>
       <c r="U35" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V35">
         <v>34</v>
@@ -6192,13 +6192,13 @@
         <v>1</v>
       </c>
       <c r="S36" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T36">
         <v>150</v>
       </c>
       <c r="U36" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V36">
         <v>151</v>
@@ -6233,13 +6233,13 @@
         <v>1</v>
       </c>
       <c r="S37" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T37">
         <v>142</v>
       </c>
       <c r="U37" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V37">
         <v>145</v>
@@ -6274,13 +6274,13 @@
         <v>1</v>
       </c>
       <c r="S38" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T38">
         <v>19</v>
       </c>
       <c r="U38" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V38">
         <v>419</v>
@@ -6324,13 +6324,13 @@
         <v>1</v>
       </c>
       <c r="S39" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T39">
         <v>150</v>
       </c>
       <c r="U39" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V39">
         <v>39</v>
@@ -6368,13 +6368,13 @@
         <v>5</v>
       </c>
       <c r="S40" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T40">
         <v>19</v>
       </c>
       <c r="U40" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V40">
         <v>419</v>
@@ -6415,13 +6415,13 @@
         <v>1</v>
       </c>
       <c r="S41" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T41">
         <v>150</v>
       </c>
       <c r="U41" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V41">
         <v>151</v>
@@ -6456,13 +6456,13 @@
         <v>1</v>
       </c>
       <c r="S42" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T42">
         <v>19</v>
       </c>
       <c r="U42" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V42">
         <v>419</v>
@@ -6509,13 +6509,13 @@
         <v>3</v>
       </c>
       <c r="S43" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="T43">
         <v>19</v>
       </c>
       <c r="U43" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V43">
         <v>21</v>
@@ -6550,13 +6550,13 @@
         <v>1</v>
       </c>
       <c r="S44" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T44">
         <v>19</v>
       </c>
       <c r="U44" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V44">
         <v>419</v>
@@ -6600,13 +6600,13 @@
         <v>1</v>
       </c>
       <c r="S45" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T45">
         <v>19</v>
       </c>
       <c r="U45" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V45">
         <v>419</v>
@@ -6647,13 +6647,13 @@
         <v>1</v>
       </c>
       <c r="S46" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T46">
         <v>19</v>
       </c>
       <c r="U46" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V46">
         <v>419</v>
@@ -6697,13 +6697,13 @@
         <v>1</v>
       </c>
       <c r="S47" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T47">
         <v>142</v>
       </c>
       <c r="U47" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V47">
         <v>35</v>
@@ -6738,13 +6738,13 @@
         <v>1</v>
       </c>
       <c r="S48" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T48">
         <v>142</v>
       </c>
       <c r="U48" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V48">
         <v>34</v>
@@ -6788,13 +6788,13 @@
         <v>5</v>
       </c>
       <c r="S49" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T49">
         <v>19</v>
       </c>
       <c r="U49" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V49">
         <v>419</v>
@@ -6835,13 +6835,13 @@
         <v>1</v>
       </c>
       <c r="S50" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T50">
         <v>2</v>
       </c>
       <c r="U50" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V50">
         <v>202</v>
@@ -6885,13 +6885,13 @@
         <v>1</v>
       </c>
       <c r="S51" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T51">
         <v>2</v>
       </c>
       <c r="U51" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V51">
         <v>202</v>
@@ -6938,13 +6938,13 @@
         <v>1</v>
       </c>
       <c r="S52" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T52">
         <v>19</v>
       </c>
       <c r="U52" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V52">
         <v>21</v>
@@ -6982,13 +6982,13 @@
         <v>5</v>
       </c>
       <c r="S53" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T53">
         <v>9</v>
       </c>
       <c r="U53" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V53">
         <v>53</v>
@@ -7023,13 +7023,13 @@
         <v>1</v>
       </c>
       <c r="S54" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T54">
         <v>150</v>
       </c>
       <c r="U54" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V54">
         <v>155</v>
@@ -7064,13 +7064,13 @@
         <v>1</v>
       </c>
       <c r="S55" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T55">
         <v>19</v>
       </c>
       <c r="U55" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V55">
         <v>419</v>
@@ -7111,13 +7111,13 @@
         <v>1</v>
       </c>
       <c r="S56" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T56">
         <v>142</v>
       </c>
       <c r="U56" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V56">
         <v>30</v>
@@ -7152,13 +7152,13 @@
         <v>1</v>
       </c>
       <c r="S57" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T57">
         <v>2</v>
       </c>
       <c r="U57" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V57">
         <v>202</v>
@@ -7199,13 +7199,13 @@
         <v>1</v>
       </c>
       <c r="S58" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T58">
         <v>2</v>
       </c>
       <c r="U58" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V58">
         <v>202</v>
@@ -7246,13 +7246,13 @@
         <v>1</v>
       </c>
       <c r="S59" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T59">
         <v>2</v>
       </c>
       <c r="U59" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V59">
         <v>202</v>
@@ -7296,13 +7296,13 @@
         <v>1</v>
       </c>
       <c r="S60" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T60">
         <v>2</v>
       </c>
       <c r="U60" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V60">
         <v>202</v>
@@ -7346,13 +7346,13 @@
         <v>5</v>
       </c>
       <c r="S61" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T61">
         <v>9</v>
       </c>
       <c r="U61" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V61">
         <v>61</v>
@@ -7390,13 +7390,13 @@
         <v>1</v>
       </c>
       <c r="S62" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T62">
         <v>19</v>
       </c>
       <c r="U62" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V62">
         <v>419</v>
@@ -7437,13 +7437,13 @@
         <v>1</v>
       </c>
       <c r="S63" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T63">
         <v>2</v>
       </c>
       <c r="U63" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V63">
         <v>202</v>
@@ -7469,7 +7469,7 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B64" t="s">
         <v>1079</v>
@@ -7481,10 +7481,10 @@
         <v>900</v>
       </c>
       <c r="E64" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F64" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="G64" t="s">
         <v>250</v>
@@ -7493,13 +7493,13 @@
         <v>5</v>
       </c>
       <c r="S64" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T64">
         <v>9</v>
       </c>
       <c r="U64" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V64">
         <v>61</v>
@@ -7534,13 +7534,13 @@
         <v>1</v>
       </c>
       <c r="S65" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T65">
         <v>2</v>
       </c>
       <c r="U65" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V65">
         <v>202</v>
@@ -7584,13 +7584,13 @@
         <v>1</v>
       </c>
       <c r="S66" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T66">
         <v>19</v>
       </c>
       <c r="U66" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V66">
         <v>419</v>
@@ -7631,13 +7631,13 @@
         <v>1</v>
       </c>
       <c r="S67" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T67">
         <v>19</v>
       </c>
       <c r="U67" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V67">
         <v>419</v>
@@ -7684,13 +7684,13 @@
         <v>5</v>
       </c>
       <c r="S68" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T68">
         <v>19</v>
       </c>
       <c r="U68" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V68">
         <v>419</v>
@@ -7737,13 +7737,13 @@
         <v>5</v>
       </c>
       <c r="S69" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T69">
         <v>9</v>
       </c>
       <c r="U69" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V69">
         <v>53</v>
@@ -7781,13 +7781,13 @@
         <v>3</v>
       </c>
       <c r="S70" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="T70">
         <v>19</v>
       </c>
       <c r="U70" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V70">
         <v>419</v>
@@ -7828,13 +7828,13 @@
         <v>1</v>
       </c>
       <c r="S71" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T71">
         <v>142</v>
       </c>
       <c r="U71" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V71">
         <v>145</v>
@@ -7869,13 +7869,13 @@
         <v>1</v>
       </c>
       <c r="S72" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T72">
         <v>150</v>
       </c>
       <c r="U72" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V72">
         <v>151</v>
@@ -7910,13 +7910,13 @@
         <v>1</v>
       </c>
       <c r="S73" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T73">
         <v>150</v>
       </c>
       <c r="U73" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V73">
         <v>155</v>
@@ -7951,13 +7951,13 @@
         <v>1</v>
       </c>
       <c r="S74" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T74">
         <v>2</v>
       </c>
       <c r="U74" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V74">
         <v>202</v>
@@ -8001,13 +8001,13 @@
         <v>1</v>
       </c>
       <c r="S75" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T75">
         <v>19</v>
       </c>
       <c r="U75" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V75">
         <v>419</v>
@@ -8051,13 +8051,13 @@
         <v>1</v>
       </c>
       <c r="S76" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T76">
         <v>150</v>
       </c>
       <c r="U76" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V76">
         <v>154</v>
@@ -8092,13 +8092,13 @@
         <v>1</v>
       </c>
       <c r="S77" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T77">
         <v>19</v>
       </c>
       <c r="U77" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V77">
         <v>419</v>
@@ -8142,13 +8142,13 @@
         <v>1</v>
       </c>
       <c r="S78" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T78">
         <v>2</v>
       </c>
       <c r="U78" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V78">
         <v>15</v>
@@ -8183,13 +8183,13 @@
         <v>1</v>
       </c>
       <c r="S79" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T79">
         <v>19</v>
       </c>
       <c r="U79" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V79">
         <v>419</v>
@@ -8230,13 +8230,13 @@
         <v>1</v>
       </c>
       <c r="S80" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T80">
         <v>2</v>
       </c>
       <c r="U80" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V80">
         <v>15</v>
@@ -8271,13 +8271,13 @@
         <v>1</v>
       </c>
       <c r="S81" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T81">
         <v>2</v>
       </c>
       <c r="U81" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V81">
         <v>202</v>
@@ -8330,13 +8330,13 @@
         <v>3</v>
       </c>
       <c r="S82" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="T82">
         <v>2</v>
       </c>
       <c r="U82" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V82">
         <v>15</v>
@@ -8371,13 +8371,13 @@
         <v>1</v>
       </c>
       <c r="S83" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T83">
         <v>150</v>
       </c>
       <c r="U83" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V83">
         <v>39</v>
@@ -8397,7 +8397,7 @@
         <v>642</v>
       </c>
       <c r="C84" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D84">
         <v>724</v>
@@ -8412,13 +8412,13 @@
         <v>5</v>
       </c>
       <c r="S84" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T84">
         <v>150</v>
       </c>
       <c r="U84" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V84">
         <v>39</v>
@@ -8453,13 +8453,13 @@
         <v>5</v>
       </c>
       <c r="S85" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T85">
         <v>2</v>
       </c>
       <c r="U85" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V85">
         <v>15</v>
@@ -8494,13 +8494,13 @@
         <v>1</v>
       </c>
       <c r="S86" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T86">
         <v>150</v>
       </c>
       <c r="U86" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V86">
         <v>154</v>
@@ -8535,13 +8535,13 @@
         <v>1</v>
       </c>
       <c r="S87" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T87">
         <v>2</v>
       </c>
       <c r="U87" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V87">
         <v>202</v>
@@ -8588,13 +8588,13 @@
         <v>1</v>
       </c>
       <c r="S88" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T88">
         <v>150</v>
       </c>
       <c r="U88" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V88">
         <v>154</v>
@@ -8629,13 +8629,13 @@
         <v>1</v>
       </c>
       <c r="S89" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T89">
         <v>9</v>
       </c>
       <c r="U89" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V89">
         <v>54</v>
@@ -8676,13 +8676,13 @@
         <v>3</v>
       </c>
       <c r="S90" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="T90">
         <v>19</v>
       </c>
       <c r="U90" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V90">
         <v>419</v>
@@ -8700,7 +8700,7 @@
         <v>1186</v>
       </c>
       <c r="AD90" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.15">
@@ -8726,13 +8726,13 @@
         <v>1</v>
       </c>
       <c r="S91" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T91">
         <v>150</v>
       </c>
       <c r="U91" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V91">
         <v>155</v>
@@ -8770,13 +8770,13 @@
         <v>5</v>
       </c>
       <c r="S92" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T92">
         <v>150</v>
       </c>
       <c r="U92" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V92">
         <v>154</v>
@@ -8811,13 +8811,13 @@
         <v>1</v>
       </c>
       <c r="S93" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T93">
         <v>9</v>
       </c>
       <c r="U93" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V93">
         <v>57</v>
@@ -8855,13 +8855,13 @@
         <v>1</v>
       </c>
       <c r="S94" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T94">
         <v>2</v>
       </c>
       <c r="U94" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V94">
         <v>202</v>
@@ -8902,13 +8902,13 @@
         <v>1</v>
       </c>
       <c r="S95" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T95">
         <v>150</v>
       </c>
       <c r="U95" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V95">
         <v>154</v>
@@ -8943,13 +8943,13 @@
         <v>1</v>
       </c>
       <c r="S96" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T96">
         <v>142</v>
       </c>
       <c r="U96" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V96">
         <v>145</v>
@@ -8999,13 +8999,13 @@
         <v>7</v>
       </c>
       <c r="S97" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="T97">
         <v>142</v>
       </c>
       <c r="U97" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V97">
         <v>145</v>
@@ -9055,13 +9055,13 @@
         <v>7</v>
       </c>
       <c r="S98" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="T98">
         <v>142</v>
       </c>
       <c r="U98" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V98">
         <v>145</v>
@@ -9099,13 +9099,13 @@
         <v>5</v>
       </c>
       <c r="S99" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T99">
         <v>150</v>
       </c>
       <c r="U99" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V99">
         <v>154</v>
@@ -9146,13 +9146,13 @@
         <v>1</v>
       </c>
       <c r="S100" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T100">
         <v>2</v>
       </c>
       <c r="U100" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V100">
         <v>202</v>
@@ -9196,13 +9196,13 @@
         <v>3</v>
       </c>
       <c r="S101" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="T101">
         <v>150</v>
       </c>
       <c r="U101" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V101">
         <v>39</v>
@@ -9237,13 +9237,13 @@
         <v>1</v>
       </c>
       <c r="S102" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T102">
         <v>2</v>
       </c>
       <c r="U102" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V102">
         <v>202</v>
@@ -9290,13 +9290,13 @@
         <v>5</v>
       </c>
       <c r="S103" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T103">
         <v>19</v>
       </c>
       <c r="U103" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V103">
         <v>419</v>
@@ -9337,13 +9337,13 @@
         <v>1</v>
       </c>
       <c r="S104" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T104">
         <v>2</v>
       </c>
       <c r="U104" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V104">
         <v>202</v>
@@ -9387,13 +9387,13 @@
         <v>1</v>
       </c>
       <c r="S105" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T105">
         <v>2</v>
       </c>
       <c r="U105" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V105">
         <v>202</v>
@@ -9440,13 +9440,13 @@
         <v>1</v>
       </c>
       <c r="S106" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T106">
         <v>2</v>
       </c>
       <c r="U106" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V106">
         <v>202</v>
@@ -9487,13 +9487,13 @@
         <v>1</v>
       </c>
       <c r="S107" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T107">
         <v>150</v>
       </c>
       <c r="U107" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V107">
         <v>39</v>
@@ -9528,13 +9528,13 @@
         <v>1</v>
       </c>
       <c r="S108" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T108">
         <v>19</v>
       </c>
       <c r="U108" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V108">
         <v>419</v>
@@ -9581,13 +9581,13 @@
         <v>5</v>
       </c>
       <c r="S109" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T109">
         <v>19</v>
       </c>
       <c r="U109" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V109">
         <v>21</v>
@@ -9622,13 +9622,13 @@
         <v>1</v>
       </c>
       <c r="S110" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T110">
         <v>19</v>
       </c>
       <c r="U110" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V110">
         <v>419</v>
@@ -9672,13 +9672,13 @@
         <v>5</v>
       </c>
       <c r="S111" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T111">
         <v>19</v>
       </c>
       <c r="U111" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V111">
         <v>419</v>
@@ -9722,13 +9722,13 @@
         <v>3</v>
       </c>
       <c r="S112" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="T112">
         <v>9</v>
       </c>
       <c r="U112" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V112">
         <v>57</v>
@@ -9766,13 +9766,13 @@
         <v>1</v>
       </c>
       <c r="S113" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T113">
         <v>19</v>
       </c>
       <c r="U113" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V113">
         <v>419</v>
@@ -9798,7 +9798,7 @@
         <v>858</v>
       </c>
       <c r="B114" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C114" t="s">
         <v>1060</v>
@@ -9822,13 +9822,13 @@
         <v>6</v>
       </c>
       <c r="S114" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="T114">
         <v>142</v>
       </c>
       <c r="U114" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V114">
         <v>30</v>
@@ -9866,13 +9866,13 @@
         <v>5</v>
       </c>
       <c r="S115" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T115">
         <v>9</v>
       </c>
       <c r="U115" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V115">
         <v>53</v>
@@ -9907,13 +9907,13 @@
         <v>1</v>
       </c>
       <c r="S116" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T116">
         <v>19</v>
       </c>
       <c r="U116" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V116">
         <v>419</v>
@@ -9954,13 +9954,13 @@
         <v>1</v>
       </c>
       <c r="S117" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T117">
         <v>150</v>
       </c>
       <c r="U117" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V117">
         <v>39</v>
@@ -9995,13 +9995,13 @@
         <v>1</v>
       </c>
       <c r="S118" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T118">
         <v>19</v>
       </c>
       <c r="U118" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V118">
         <v>419</v>
@@ -10048,13 +10048,13 @@
         <v>1</v>
       </c>
       <c r="S119" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T119">
         <v>150</v>
       </c>
       <c r="U119" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V119">
         <v>151</v>
@@ -10089,13 +10089,13 @@
         <v>1</v>
       </c>
       <c r="S120" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T120">
         <v>142</v>
       </c>
       <c r="U120" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V120">
         <v>35</v>
@@ -10133,13 +10133,13 @@
         <v>5</v>
       </c>
       <c r="S121" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T121">
         <v>150</v>
       </c>
       <c r="U121" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V121">
         <v>154</v>
@@ -10174,13 +10174,13 @@
         <v>1</v>
       </c>
       <c r="S122" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T122">
         <v>142</v>
       </c>
       <c r="U122" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V122">
         <v>34</v>
@@ -10218,13 +10218,13 @@
         <v>5</v>
       </c>
       <c r="S123" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T123">
         <v>2</v>
       </c>
       <c r="U123" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V123">
         <v>202</v>
@@ -10242,7 +10242,7 @@
         <v>1186</v>
       </c>
       <c r="AD123" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.15">
@@ -10268,13 +10268,13 @@
         <v>1</v>
       </c>
       <c r="S124" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T124">
         <v>150</v>
       </c>
       <c r="U124" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V124">
         <v>154</v>
@@ -10309,13 +10309,13 @@
         <v>1</v>
       </c>
       <c r="S125" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T125">
         <v>142</v>
       </c>
       <c r="U125" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V125">
         <v>34</v>
@@ -10350,13 +10350,13 @@
         <v>1</v>
       </c>
       <c r="S126" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T126">
         <v>142</v>
       </c>
       <c r="U126" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V126">
         <v>145</v>
@@ -10391,13 +10391,13 @@
         <v>1</v>
       </c>
       <c r="S127" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T127">
         <v>150</v>
       </c>
       <c r="U127" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V127">
         <v>154</v>
@@ -10432,13 +10432,13 @@
         <v>1</v>
       </c>
       <c r="S128" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T128">
         <v>142</v>
       </c>
       <c r="U128" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V128">
         <v>145</v>
@@ -10473,13 +10473,13 @@
         <v>1</v>
       </c>
       <c r="S129" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T129">
         <v>150</v>
       </c>
       <c r="U129" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V129">
         <v>39</v>
@@ -10514,13 +10514,13 @@
         <v>1</v>
       </c>
       <c r="S130" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T130">
         <v>19</v>
       </c>
       <c r="U130" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V130">
         <v>419</v>
@@ -10567,13 +10567,13 @@
         <v>5</v>
       </c>
       <c r="S131" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T131">
         <v>150</v>
       </c>
       <c r="U131" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V131">
         <v>154</v>
@@ -10614,13 +10614,13 @@
         <v>1</v>
       </c>
       <c r="S132" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T132">
         <v>142</v>
       </c>
       <c r="U132" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V132">
         <v>145</v>
@@ -10655,13 +10655,13 @@
         <v>1</v>
       </c>
       <c r="S133" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T133">
         <v>142</v>
       </c>
       <c r="U133" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V133">
         <v>30</v>
@@ -10696,13 +10696,13 @@
         <v>1</v>
       </c>
       <c r="S134" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T134">
         <v>142</v>
       </c>
       <c r="U134" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V134">
         <v>143</v>
@@ -10740,13 +10740,13 @@
         <v>1</v>
       </c>
       <c r="S135" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T135">
         <v>2</v>
       </c>
       <c r="U135" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V135">
         <v>202</v>
@@ -10787,13 +10787,13 @@
         <v>1</v>
       </c>
       <c r="S136" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T136">
         <v>142</v>
       </c>
       <c r="U136" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V136">
         <v>143</v>
@@ -10831,13 +10831,13 @@
         <v>1</v>
       </c>
       <c r="S137" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T137">
         <v>142</v>
       </c>
       <c r="U137" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V137">
         <v>35</v>
@@ -10875,13 +10875,13 @@
         <v>1</v>
       </c>
       <c r="S138" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T138">
         <v>9</v>
       </c>
       <c r="U138" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V138">
         <v>57</v>
@@ -10922,13 +10922,13 @@
         <v>1</v>
       </c>
       <c r="S139" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T139">
         <v>19</v>
       </c>
       <c r="U139" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V139">
         <v>419</v>
@@ -10972,13 +10972,13 @@
         <v>1</v>
       </c>
       <c r="S140" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T140">
         <v>142</v>
       </c>
       <c r="U140" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V140">
         <v>30</v>
@@ -11013,13 +11013,13 @@
         <v>1</v>
       </c>
       <c r="S141" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T141">
         <v>142</v>
       </c>
       <c r="U141" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V141">
         <v>145</v>
@@ -11054,13 +11054,13 @@
         <v>1</v>
       </c>
       <c r="S142" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T142">
         <v>142</v>
       </c>
       <c r="U142" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V142">
         <v>35</v>
@@ -11101,13 +11101,13 @@
         <v>1</v>
       </c>
       <c r="S143" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T143">
         <v>142</v>
       </c>
       <c r="U143" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V143">
         <v>145</v>
@@ -11142,13 +11142,13 @@
         <v>1</v>
       </c>
       <c r="S144" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T144">
         <v>2</v>
       </c>
       <c r="U144" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V144">
         <v>202</v>
@@ -11192,13 +11192,13 @@
         <v>1</v>
       </c>
       <c r="S145" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T145">
         <v>2</v>
       </c>
       <c r="U145" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V145">
         <v>15</v>
@@ -11233,13 +11233,13 @@
         <v>1</v>
       </c>
       <c r="S146" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T146">
         <v>19</v>
       </c>
       <c r="U146" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V146">
         <v>419</v>
@@ -11283,13 +11283,13 @@
         <v>1</v>
       </c>
       <c r="S147" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T147">
         <v>150</v>
       </c>
       <c r="U147" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V147">
         <v>155</v>
@@ -11324,13 +11324,13 @@
         <v>1</v>
       </c>
       <c r="S148" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T148">
         <v>142</v>
       </c>
       <c r="U148" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V148">
         <v>34</v>
@@ -11365,13 +11365,13 @@
         <v>1</v>
       </c>
       <c r="S149" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T149">
         <v>2</v>
       </c>
       <c r="U149" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V149">
         <v>202</v>
@@ -11418,13 +11418,13 @@
         <v>1</v>
       </c>
       <c r="S150" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T150">
         <v>150</v>
       </c>
       <c r="U150" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V150">
         <v>154</v>
@@ -11459,13 +11459,13 @@
         <v>1</v>
       </c>
       <c r="S151" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T151">
         <v>150</v>
       </c>
       <c r="U151" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V151">
         <v>155</v>
@@ -11500,13 +11500,13 @@
         <v>1</v>
       </c>
       <c r="S152" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T152">
         <v>150</v>
       </c>
       <c r="U152" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V152">
         <v>154</v>
@@ -11523,7 +11523,7 @@
         <v>1028</v>
       </c>
       <c r="B153" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C153" t="s">
         <v>1064</v>
@@ -11547,13 +11547,13 @@
         <v>6</v>
       </c>
       <c r="S153" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="T153">
         <v>142</v>
       </c>
       <c r="U153" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V153">
         <v>30</v>
@@ -11591,13 +11591,13 @@
         <v>5</v>
       </c>
       <c r="S154" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T154">
         <v>19</v>
       </c>
       <c r="U154" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V154">
         <v>419</v>
@@ -11638,13 +11638,13 @@
         <v>1</v>
       </c>
       <c r="S155" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T155">
         <v>2</v>
       </c>
       <c r="U155" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V155">
         <v>15</v>
@@ -11679,13 +11679,13 @@
         <v>1</v>
       </c>
       <c r="S156" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T156">
         <v>150</v>
       </c>
       <c r="U156" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V156">
         <v>155</v>
@@ -11720,13 +11720,13 @@
         <v>1</v>
       </c>
       <c r="S157" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T157">
         <v>150</v>
       </c>
       <c r="U157" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V157">
         <v>151</v>
@@ -11764,13 +11764,13 @@
         <v>1</v>
       </c>
       <c r="S158" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T158">
         <v>2</v>
       </c>
       <c r="U158" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V158">
         <v>202</v>
@@ -11814,13 +11814,13 @@
         <v>1</v>
       </c>
       <c r="S159" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T159">
         <v>142</v>
       </c>
       <c r="U159" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V159">
         <v>34</v>
@@ -11858,13 +11858,13 @@
         <v>1</v>
       </c>
       <c r="S160" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T160">
         <v>19</v>
       </c>
       <c r="U160" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V160">
         <v>419</v>
@@ -11905,13 +11905,13 @@
         <v>1</v>
       </c>
       <c r="S161" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T161">
         <v>9</v>
       </c>
       <c r="U161" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V161">
         <v>57</v>
@@ -11949,13 +11949,13 @@
         <v>1</v>
       </c>
       <c r="S162" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T162">
         <v>150</v>
       </c>
       <c r="U162" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V162">
         <v>39</v>
@@ -11993,13 +11993,13 @@
         <v>1</v>
       </c>
       <c r="S163" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T163">
         <v>2</v>
       </c>
       <c r="U163" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V163">
         <v>202</v>
@@ -12046,13 +12046,13 @@
         <v>1</v>
       </c>
       <c r="S164" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T164">
         <v>150</v>
       </c>
       <c r="U164" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V164">
         <v>39</v>
@@ -12087,13 +12087,13 @@
         <v>1</v>
       </c>
       <c r="S165" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T165">
         <v>142</v>
       </c>
       <c r="U165" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V165">
         <v>35</v>
@@ -12131,13 +12131,13 @@
         <v>1</v>
       </c>
       <c r="S166" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T166">
         <v>150</v>
       </c>
       <c r="U166" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V166">
         <v>39</v>
@@ -12172,13 +12172,13 @@
         <v>1</v>
       </c>
       <c r="S167" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T167">
         <v>142</v>
       </c>
       <c r="U167" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V167">
         <v>30</v>
@@ -12219,13 +12219,13 @@
         <v>5</v>
       </c>
       <c r="S168" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T168">
         <v>9</v>
       </c>
       <c r="U168" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V168">
         <v>57</v>
@@ -12263,13 +12263,13 @@
         <v>1</v>
       </c>
       <c r="S169" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T169">
         <v>2</v>
       </c>
       <c r="U169" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V169">
         <v>202</v>
@@ -12313,13 +12313,13 @@
         <v>1</v>
       </c>
       <c r="S170" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T170">
         <v>2</v>
       </c>
       <c r="U170" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V170">
         <v>202</v>
@@ -12366,13 +12366,13 @@
         <v>3</v>
       </c>
       <c r="S171" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="T171">
         <v>19</v>
       </c>
       <c r="U171" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V171">
         <v>419</v>
@@ -12419,13 +12419,13 @@
         <v>5</v>
       </c>
       <c r="S172" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T172">
         <v>19</v>
       </c>
       <c r="U172" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V172">
         <v>419</v>
@@ -12466,13 +12466,13 @@
         <v>1</v>
       </c>
       <c r="S173" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T173">
         <v>2</v>
       </c>
       <c r="U173" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V173">
         <v>202</v>
@@ -12516,13 +12516,13 @@
         <v>1</v>
       </c>
       <c r="S174" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T174">
         <v>2</v>
       </c>
       <c r="U174" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V174">
         <v>202</v>
@@ -12569,13 +12569,13 @@
         <v>1</v>
       </c>
       <c r="S175" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T175">
         <v>142</v>
       </c>
       <c r="U175" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V175">
         <v>35</v>
@@ -12613,13 +12613,13 @@
         <v>5</v>
       </c>
       <c r="S176" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T176">
         <v>2</v>
       </c>
       <c r="U176" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V176">
         <v>202</v>
@@ -12660,13 +12660,13 @@
         <v>1</v>
       </c>
       <c r="S177" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T177">
         <v>2</v>
       </c>
       <c r="U177" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V177">
         <v>202</v>
@@ -12710,13 +12710,13 @@
         <v>3</v>
       </c>
       <c r="S178" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="T178">
         <v>9</v>
       </c>
       <c r="U178" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V178">
         <v>54</v>
@@ -12754,13 +12754,13 @@
         <v>1</v>
       </c>
       <c r="S179" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T179">
         <v>2</v>
       </c>
       <c r="U179" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V179">
         <v>202</v>
@@ -12810,13 +12810,13 @@
         <v>5</v>
       </c>
       <c r="S180" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T180">
         <v>9</v>
       </c>
       <c r="U180" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V180">
         <v>53</v>
@@ -12851,13 +12851,13 @@
         <v>1</v>
       </c>
       <c r="S181" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T181">
         <v>2</v>
       </c>
       <c r="U181" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V181">
         <v>202</v>
@@ -12898,13 +12898,13 @@
         <v>1</v>
       </c>
       <c r="S182" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T182">
         <v>19</v>
       </c>
       <c r="U182" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V182">
         <v>419</v>
@@ -12948,13 +12948,13 @@
         <v>5</v>
       </c>
       <c r="S183" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T183">
         <v>9</v>
       </c>
       <c r="U183" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V183">
         <v>61</v>
@@ -12992,13 +12992,13 @@
         <v>1</v>
       </c>
       <c r="S184" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T184">
         <v>150</v>
       </c>
       <c r="U184" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V184">
         <v>155</v>
@@ -13033,13 +13033,13 @@
         <v>1</v>
       </c>
       <c r="S185" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T185">
         <v>150</v>
       </c>
       <c r="U185" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V185">
         <v>154</v>
@@ -13074,13 +13074,13 @@
         <v>1</v>
       </c>
       <c r="S186" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T186">
         <v>142</v>
       </c>
       <c r="U186" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V186">
         <v>34</v>
@@ -13121,13 +13121,13 @@
         <v>1</v>
       </c>
       <c r="S187" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T187">
         <v>9</v>
       </c>
       <c r="U187" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V187">
         <v>57</v>
@@ -13165,13 +13165,13 @@
         <v>1</v>
       </c>
       <c r="S188" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T188">
         <v>9</v>
       </c>
       <c r="U188" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V188">
         <v>53</v>
@@ -13206,13 +13206,13 @@
         <v>1</v>
       </c>
       <c r="S189" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T189">
         <v>142</v>
       </c>
       <c r="U189" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V189">
         <v>145</v>
@@ -13247,13 +13247,13 @@
         <v>1</v>
       </c>
       <c r="S190" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T190">
         <v>142</v>
       </c>
       <c r="U190" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V190">
         <v>34</v>
@@ -13288,13 +13288,13 @@
         <v>1</v>
       </c>
       <c r="S191" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T191">
         <v>19</v>
       </c>
       <c r="U191" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V191">
         <v>419</v>
@@ -13338,13 +13338,13 @@
         <v>3</v>
       </c>
       <c r="S192" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="T192">
         <v>9</v>
       </c>
       <c r="U192" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V192">
         <v>61</v>
@@ -13379,13 +13379,13 @@
         <v>1</v>
       </c>
       <c r="S193" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T193">
         <v>19</v>
       </c>
       <c r="U193" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V193">
         <v>419</v>
@@ -13426,13 +13426,13 @@
         <v>1</v>
       </c>
       <c r="S194" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T194">
         <v>142</v>
       </c>
       <c r="U194" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V194">
         <v>35</v>
@@ -13467,13 +13467,13 @@
         <v>1</v>
       </c>
       <c r="S195" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T195">
         <v>9</v>
       </c>
       <c r="U195" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V195">
         <v>57</v>
@@ -13511,13 +13511,13 @@
         <v>1</v>
       </c>
       <c r="S196" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T196">
         <v>9</v>
       </c>
       <c r="U196" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V196">
         <v>54</v>
@@ -13555,13 +13555,13 @@
         <v>1</v>
       </c>
       <c r="S197" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T197">
         <v>150</v>
       </c>
       <c r="U197" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V197">
         <v>151</v>
@@ -13599,13 +13599,13 @@
         <v>5</v>
       </c>
       <c r="S198" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T198">
         <v>19</v>
       </c>
       <c r="U198" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V198">
         <v>419</v>
@@ -13649,13 +13649,13 @@
         <v>1</v>
       </c>
       <c r="S199" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T199">
         <v>142</v>
       </c>
       <c r="U199" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V199">
         <v>30</v>
@@ -13690,13 +13690,13 @@
         <v>1</v>
       </c>
       <c r="S200" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T200">
         <v>150</v>
       </c>
       <c r="U200" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V200">
         <v>39</v>
@@ -13731,13 +13731,13 @@
         <v>5</v>
       </c>
       <c r="S201" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T201">
         <v>150</v>
       </c>
       <c r="U201" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V201">
         <v>39</v>
@@ -13757,7 +13757,7 @@
         <v>551</v>
       </c>
       <c r="C202" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D202">
         <v>620</v>
@@ -13772,13 +13772,13 @@
         <v>5</v>
       </c>
       <c r="S202" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T202">
         <v>150</v>
       </c>
       <c r="U202" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V202">
         <v>39</v>
@@ -13813,13 +13813,13 @@
         <v>1</v>
       </c>
       <c r="S203" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T203">
         <v>19</v>
       </c>
       <c r="U203" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V203">
         <v>419</v>
@@ -13863,13 +13863,13 @@
         <v>2</v>
       </c>
       <c r="S204" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="T204">
         <v>142</v>
       </c>
       <c r="U204" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V204">
         <v>145</v>
@@ -13904,13 +13904,13 @@
         <v>2</v>
       </c>
       <c r="S205" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="T205">
         <v>142</v>
       </c>
       <c r="U205" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V205">
         <v>145</v>
@@ -13948,13 +13948,13 @@
         <v>3</v>
       </c>
       <c r="S206" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="T206">
         <v>9</v>
       </c>
       <c r="U206" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V206">
         <v>61</v>
@@ -13992,13 +13992,13 @@
         <v>1</v>
       </c>
       <c r="S207" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T207">
         <v>142</v>
       </c>
       <c r="U207" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V207">
         <v>145</v>
@@ -14036,13 +14036,13 @@
         <v>5</v>
       </c>
       <c r="S208" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T208">
         <v>2</v>
       </c>
       <c r="U208" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V208">
         <v>202</v>
@@ -14083,13 +14083,13 @@
         <v>1</v>
       </c>
       <c r="S209" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T209">
         <v>150</v>
       </c>
       <c r="U209" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V209">
         <v>151</v>
@@ -14124,13 +14124,13 @@
         <v>1</v>
       </c>
       <c r="S210" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T210">
         <v>150</v>
       </c>
       <c r="U210" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V210">
         <v>151</v>
@@ -14165,13 +14165,13 @@
         <v>1</v>
       </c>
       <c r="S211" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T211">
         <v>2</v>
       </c>
       <c r="U211" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V211">
         <v>202</v>
@@ -14218,13 +14218,13 @@
         <v>1</v>
       </c>
       <c r="S212" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T212">
         <v>142</v>
       </c>
       <c r="U212" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V212">
         <v>145</v>
@@ -14259,13 +14259,13 @@
         <v>1</v>
       </c>
       <c r="S213" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T213">
         <v>2</v>
       </c>
       <c r="U213" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V213">
         <v>15</v>
@@ -14280,7 +14280,7 @@
         <v>1186</v>
       </c>
       <c r="AD213" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="214" spans="1:30" x14ac:dyDescent="0.15">
@@ -14306,13 +14306,13 @@
         <v>1</v>
       </c>
       <c r="S214" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T214">
         <v>2</v>
       </c>
       <c r="U214" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V214">
         <v>202</v>
@@ -14356,13 +14356,13 @@
         <v>1</v>
       </c>
       <c r="S215" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T215">
         <v>142</v>
       </c>
       <c r="U215" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V215">
         <v>35</v>
@@ -14403,13 +14403,13 @@
         <v>5</v>
       </c>
       <c r="S216" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T216">
         <v>19</v>
       </c>
       <c r="U216" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V216">
         <v>419</v>
@@ -14453,13 +14453,13 @@
         <v>3</v>
       </c>
       <c r="S217" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="T217">
         <v>2</v>
       </c>
       <c r="U217" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V217">
         <v>202</v>
@@ -14503,13 +14503,13 @@
         <v>3</v>
       </c>
       <c r="S218" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="T218">
         <v>2</v>
       </c>
       <c r="U218" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V218">
         <v>202</v>
@@ -14553,13 +14553,13 @@
         <v>3</v>
       </c>
       <c r="S219" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="T219">
         <v>2</v>
       </c>
       <c r="U219" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V219">
         <v>202</v>
@@ -14603,13 +14603,13 @@
         <v>3</v>
       </c>
       <c r="S220" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="T220">
         <v>2</v>
       </c>
       <c r="U220" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V220">
         <v>202</v>
@@ -14635,7 +14635,7 @@
         <v>1091</v>
       </c>
       <c r="C221" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D221">
         <v>744</v>
@@ -14653,13 +14653,13 @@
         <v>5</v>
       </c>
       <c r="S221" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T221">
         <v>150</v>
       </c>
       <c r="U221" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V221">
         <v>154</v>
@@ -14679,7 +14679,7 @@
         <v>1091</v>
       </c>
       <c r="C222" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D222">
         <v>744</v>
@@ -14697,13 +14697,13 @@
         <v>5</v>
       </c>
       <c r="S222" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T222">
         <v>150</v>
       </c>
       <c r="U222" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V222">
         <v>154</v>
@@ -14738,13 +14738,13 @@
         <v>1</v>
       </c>
       <c r="S223" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T223">
         <v>9</v>
       </c>
       <c r="U223" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V223">
         <v>54</v>
@@ -14785,13 +14785,13 @@
         <v>1</v>
       </c>
       <c r="S224" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T224">
         <v>2</v>
       </c>
       <c r="U224" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V224">
         <v>202</v>
@@ -14835,13 +14835,13 @@
         <v>1</v>
       </c>
       <c r="S225" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T225">
         <v>19</v>
       </c>
       <c r="U225" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V225">
         <v>419</v>
@@ -14882,13 +14882,13 @@
         <v>1</v>
       </c>
       <c r="S226" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T226">
         <v>150</v>
       </c>
       <c r="U226" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V226">
         <v>39</v>
@@ -14923,13 +14923,13 @@
         <v>1</v>
       </c>
       <c r="S227" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T227">
         <v>2</v>
       </c>
       <c r="U227" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V227">
         <v>202</v>
@@ -14976,13 +14976,13 @@
         <v>5</v>
       </c>
       <c r="S228" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T228">
         <v>19</v>
       </c>
       <c r="U228" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V228">
         <v>21</v>
@@ -15017,13 +15017,13 @@
         <v>1</v>
       </c>
       <c r="S229" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T229">
         <v>150</v>
       </c>
       <c r="U229" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V229">
         <v>39</v>
@@ -15073,13 +15073,13 @@
         <v>7</v>
       </c>
       <c r="S230" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="T230">
         <v>150</v>
       </c>
       <c r="U230" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V230">
         <v>39</v>
@@ -15114,13 +15114,13 @@
         <v>1</v>
       </c>
       <c r="S231" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T231">
         <v>2</v>
       </c>
       <c r="U231" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V231">
         <v>202</v>
@@ -15144,7 +15144,7 @@
         <v>1186</v>
       </c>
       <c r="AD231" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="232" spans="1:30" x14ac:dyDescent="0.15">
@@ -15170,13 +15170,13 @@
         <v>1</v>
       </c>
       <c r="S232" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T232">
         <v>2</v>
       </c>
       <c r="U232" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V232">
         <v>202</v>
@@ -15223,13 +15223,13 @@
         <v>1</v>
       </c>
       <c r="S233" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T233">
         <v>19</v>
       </c>
       <c r="U233" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V233">
         <v>419</v>
@@ -15273,13 +15273,13 @@
         <v>1</v>
       </c>
       <c r="S234" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T234">
         <v>150</v>
       </c>
       <c r="U234" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V234">
         <v>151</v>
@@ -15314,13 +15314,13 @@
         <v>1</v>
       </c>
       <c r="S235" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T235">
         <v>150</v>
       </c>
       <c r="U235" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V235">
         <v>39</v>
@@ -15355,13 +15355,13 @@
         <v>1</v>
       </c>
       <c r="S236" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T236">
         <v>150</v>
       </c>
       <c r="U236" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V236">
         <v>154</v>
@@ -15396,13 +15396,13 @@
         <v>1</v>
       </c>
       <c r="S237" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T237">
         <v>2</v>
       </c>
       <c r="U237" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V237">
         <v>202</v>
@@ -15449,13 +15449,13 @@
         <v>5</v>
       </c>
       <c r="S238" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T238">
         <v>19</v>
       </c>
       <c r="U238" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V238">
         <v>419</v>
@@ -15499,13 +15499,13 @@
         <v>1</v>
       </c>
       <c r="S239" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T239">
         <v>2</v>
       </c>
       <c r="U239" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V239">
         <v>202</v>
@@ -15549,13 +15549,13 @@
         <v>1</v>
       </c>
       <c r="S240" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T240">
         <v>142</v>
       </c>
       <c r="U240" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V240">
         <v>145</v>
@@ -15593,13 +15593,13 @@
         <v>3</v>
       </c>
       <c r="S241" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="T241">
         <v>19</v>
       </c>
       <c r="U241" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V241">
         <v>419</v>
@@ -15640,13 +15640,13 @@
         <v>1</v>
       </c>
       <c r="S242" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T242">
         <v>2</v>
       </c>
       <c r="U242" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V242">
         <v>202</v>
@@ -15693,13 +15693,13 @@
         <v>1</v>
       </c>
       <c r="S243" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T243">
         <v>2</v>
       </c>
       <c r="U243" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V243">
         <v>202</v>
@@ -15743,13 +15743,13 @@
         <v>1</v>
       </c>
       <c r="S244" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T244">
         <v>142</v>
       </c>
       <c r="U244" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V244">
         <v>35</v>
@@ -15784,13 +15784,13 @@
         <v>1</v>
       </c>
       <c r="S245" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T245">
         <v>142</v>
       </c>
       <c r="U245" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V245">
         <v>143</v>
@@ -15831,13 +15831,13 @@
         <v>3</v>
       </c>
       <c r="S246" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="T246">
         <v>9</v>
       </c>
       <c r="U246" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V246">
         <v>61</v>
@@ -15872,13 +15872,13 @@
         <v>1</v>
       </c>
       <c r="S247" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T247">
         <v>142</v>
       </c>
       <c r="U247" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V247">
         <v>143</v>
@@ -15916,13 +15916,13 @@
         <v>1</v>
       </c>
       <c r="S248" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T248">
         <v>142</v>
       </c>
       <c r="U248" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V248">
         <v>35</v>
@@ -15963,13 +15963,13 @@
         <v>1</v>
       </c>
       <c r="S249" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T249">
         <v>9</v>
       </c>
       <c r="U249" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V249">
         <v>61</v>
@@ -16007,13 +16007,13 @@
         <v>1</v>
       </c>
       <c r="S250" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T250">
         <v>19</v>
       </c>
       <c r="U250" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V250">
         <v>419</v>
@@ -16057,13 +16057,13 @@
         <v>1</v>
       </c>
       <c r="S251" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T251">
         <v>2</v>
       </c>
       <c r="U251" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V251">
         <v>15</v>
@@ -16098,13 +16098,13 @@
         <v>1</v>
       </c>
       <c r="S252" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T252">
         <v>142</v>
       </c>
       <c r="U252" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V252">
         <v>145</v>
@@ -16139,13 +16139,13 @@
         <v>1</v>
       </c>
       <c r="S253" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T253">
         <v>9</v>
       </c>
       <c r="U253" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V253">
         <v>61</v>
@@ -16171,7 +16171,7 @@
         <v>665</v>
       </c>
       <c r="C254" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D254">
         <v>158</v>
@@ -16188,20 +16188,17 @@
       <c r="K254" t="s">
         <v>805</v>
       </c>
-      <c r="P254" t="s">
-        <v>987</v>
-      </c>
       <c r="R254">
         <v>6</v>
       </c>
       <c r="S254" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="T254">
         <v>142</v>
       </c>
       <c r="U254" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V254">
         <v>30</v>
@@ -16236,13 +16233,13 @@
         <v>1</v>
       </c>
       <c r="S255" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T255">
         <v>2</v>
       </c>
       <c r="U255" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V255">
         <v>202</v>
@@ -16286,13 +16283,13 @@
         <v>1</v>
       </c>
       <c r="S256" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T256">
         <v>2</v>
       </c>
       <c r="U256" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V256">
         <v>202</v>
@@ -16339,13 +16336,13 @@
         <v>1</v>
       </c>
       <c r="S257" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T257">
         <v>150</v>
       </c>
       <c r="U257" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V257">
         <v>151</v>
@@ -16383,13 +16380,13 @@
         <v>5</v>
       </c>
       <c r="S258" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T258">
         <v>9</v>
       </c>
       <c r="U258" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V258">
         <v>57</v>
@@ -16427,13 +16424,13 @@
         <v>5</v>
       </c>
       <c r="S259" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T259">
         <v>9</v>
       </c>
       <c r="U259" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V259">
         <v>57</v>
@@ -16471,13 +16468,13 @@
         <v>5</v>
       </c>
       <c r="S260" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T260">
         <v>9</v>
       </c>
       <c r="U260" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V260">
         <v>57</v>
@@ -16515,13 +16512,13 @@
         <v>5</v>
       </c>
       <c r="S261" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T261">
         <v>9</v>
       </c>
       <c r="U261" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V261">
         <v>57</v>
@@ -16559,13 +16556,13 @@
         <v>5</v>
       </c>
       <c r="S262" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T262">
         <v>9</v>
       </c>
       <c r="U262" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V262">
         <v>57</v>
@@ -16585,7 +16582,7 @@
         <v>721</v>
       </c>
       <c r="C263" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D263">
         <v>581</v>
@@ -16603,13 +16600,13 @@
         <v>5</v>
       </c>
       <c r="S263" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T263">
         <v>9</v>
       </c>
       <c r="U263" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V263">
         <v>57</v>
@@ -16647,13 +16644,13 @@
         <v>5</v>
       </c>
       <c r="S264" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T264">
         <v>9</v>
       </c>
       <c r="U264" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V264">
         <v>57</v>
@@ -16691,13 +16688,13 @@
         <v>5</v>
       </c>
       <c r="S265" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T265">
         <v>9</v>
       </c>
       <c r="U265" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V265">
         <v>57</v>
@@ -16735,13 +16732,13 @@
         <v>5</v>
       </c>
       <c r="S266" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T266">
         <v>19</v>
       </c>
       <c r="U266" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V266">
         <v>419</v>
@@ -16782,13 +16779,13 @@
         <v>1</v>
       </c>
       <c r="S267" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T267">
         <v>19</v>
       </c>
       <c r="U267" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V267">
         <v>419</v>
@@ -16829,13 +16826,13 @@
         <v>1</v>
       </c>
       <c r="S268" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T268">
         <v>19</v>
       </c>
       <c r="U268" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V268">
         <v>21</v>
@@ -16870,13 +16867,13 @@
         <v>1</v>
       </c>
       <c r="S269" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T269">
         <v>142</v>
       </c>
       <c r="U269" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V269">
         <v>143</v>
@@ -16914,13 +16911,13 @@
         <v>1</v>
       </c>
       <c r="S270" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T270">
         <v>150</v>
       </c>
       <c r="U270" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V270">
         <v>39</v>
@@ -16955,13 +16952,13 @@
         <v>1</v>
       </c>
       <c r="S271" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T271">
         <v>19</v>
       </c>
       <c r="U271" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V271">
         <v>419</v>
@@ -16984,7 +16981,7 @@
     </row>
     <row r="272" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B272" t="s">
         <v>733</v>
@@ -17005,13 +17002,13 @@
         <v>1</v>
       </c>
       <c r="S272" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T272">
         <v>19</v>
       </c>
       <c r="U272" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V272">
         <v>419</v>
@@ -17031,13 +17028,13 @@
     </row>
     <row r="273" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B273" t="s">
         <v>733</v>
       </c>
       <c r="C273" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D273">
         <v>862</v>
@@ -17052,13 +17049,13 @@
         <v>5</v>
       </c>
       <c r="S273" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T273">
         <v>19</v>
       </c>
       <c r="U273" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V273">
         <v>419</v>
@@ -17102,13 +17099,13 @@
         <v>3</v>
       </c>
       <c r="S274" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="T274">
         <v>19</v>
       </c>
       <c r="U274" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V274">
         <v>419</v>
@@ -17155,13 +17152,13 @@
         <v>3</v>
       </c>
       <c r="S275" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="T275">
         <v>19</v>
       </c>
       <c r="U275" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V275">
         <v>419</v>
@@ -17205,13 +17202,13 @@
         <v>1</v>
       </c>
       <c r="S276" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T276">
         <v>142</v>
       </c>
       <c r="U276" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V276">
         <v>35</v>
@@ -17246,13 +17243,13 @@
         <v>1</v>
       </c>
       <c r="S277" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T277">
         <v>9</v>
       </c>
       <c r="U277" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V277">
         <v>54</v>
@@ -17293,13 +17290,13 @@
         <v>5</v>
       </c>
       <c r="S278" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T278">
         <v>9</v>
       </c>
       <c r="U278" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V278">
         <v>61</v>
@@ -17334,13 +17331,13 @@
         <v>1</v>
       </c>
       <c r="S279" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T279">
         <v>9</v>
       </c>
       <c r="U279" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V279">
         <v>61</v>
@@ -17378,13 +17375,13 @@
         <v>1</v>
       </c>
       <c r="S280" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T280">
         <v>142</v>
       </c>
       <c r="U280" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V280">
         <v>145</v>
@@ -17422,13 +17419,13 @@
         <v>1</v>
       </c>
       <c r="S281" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T281">
         <v>2</v>
       </c>
       <c r="U281" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V281">
         <v>202</v>
@@ -17469,13 +17466,13 @@
         <v>1</v>
       </c>
       <c r="S282" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T282">
         <v>2</v>
       </c>
       <c r="U282" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V282">
         <v>202</v>
@@ -17522,13 +17519,13 @@
         <v>1</v>
       </c>
       <c r="S283" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="T283">
         <v>2</v>
       </c>
       <c r="U283" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V283">
         <v>202</v>
@@ -17554,16 +17551,16 @@
         <v>1004</v>
       </c>
       <c r="B284" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C284" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D284">
         <v>901</v>
       </c>
       <c r="E284" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F284" t="s">
         <v>1138</v>
@@ -17572,13 +17569,13 @@
         <v>99</v>
       </c>
       <c r="S284" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T284">
         <v>2</v>
       </c>
       <c r="U284" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V284">
         <v>202</v>
@@ -17593,7 +17590,7 @@
         <v>117</v>
       </c>
       <c r="AD284" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="285" spans="1:30" x14ac:dyDescent="0.15">
@@ -17607,10 +17604,10 @@
         <v>902</v>
       </c>
       <c r="E285" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="F285" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="K285" t="s">
         <v>805</v>
@@ -17622,13 +17619,13 @@
         <v>99</v>
       </c>
       <c r="S285" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T285">
         <v>142</v>
       </c>
       <c r="U285" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V285">
         <v>34</v>
@@ -17639,22 +17636,22 @@
     </row>
     <row r="286" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B286" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C286" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D286">
         <v>903</v>
       </c>
       <c r="E286" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F286" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="I286" t="s">
         <v>1125</v>
@@ -17672,13 +17669,13 @@
         <v>99</v>
       </c>
       <c r="S286" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T286">
         <v>142</v>
       </c>
       <c r="U286" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V286">
         <v>34</v>
@@ -17687,7 +17684,7 @@
         <v>4</v>
       </c>
       <c r="AD286" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="287" spans="1:30" x14ac:dyDescent="0.15">
@@ -17701,7 +17698,7 @@
         <v>904</v>
       </c>
       <c r="E287" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F287" t="s">
         <v>1139</v>
@@ -17719,13 +17716,13 @@
         <v>99</v>
       </c>
       <c r="S287" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T287">
         <v>142</v>
       </c>
       <c r="U287" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V287">
         <v>34</v>
@@ -17736,19 +17733,19 @@
     </row>
     <row r="288" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B288" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D288">
         <v>905</v>
       </c>
       <c r="E288" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F288" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K288" t="s">
         <v>805</v>
@@ -17760,13 +17757,13 @@
         <v>99</v>
       </c>
       <c r="S288" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T288">
         <v>142</v>
       </c>
       <c r="U288" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V288">
         <v>34</v>
@@ -17777,19 +17774,19 @@
     </row>
     <row r="289" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B289" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D289">
         <v>906</v>
       </c>
       <c r="E289" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F289" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="K289" t="s">
         <v>805</v>
@@ -17801,13 +17798,13 @@
         <v>99</v>
       </c>
       <c r="S289" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T289">
         <v>142</v>
       </c>
       <c r="U289" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V289">
         <v>34</v>
@@ -17818,31 +17815,31 @@
     </row>
     <row r="290" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B290" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D290">
         <v>907</v>
       </c>
       <c r="E290" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="F290" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="R290">
         <v>99</v>
       </c>
       <c r="S290" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T290">
         <v>2</v>
       </c>
       <c r="U290" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V290">
         <v>202</v>
@@ -17859,19 +17856,19 @@
     </row>
     <row r="291" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B291" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D291">
         <v>908</v>
       </c>
       <c r="E291" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F291" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="K291" t="s">
         <v>805</v>
@@ -17883,13 +17880,13 @@
         <v>99</v>
       </c>
       <c r="S291" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T291">
         <v>142</v>
       </c>
       <c r="U291" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V291">
         <v>34</v>
@@ -17903,13 +17900,13 @@
         <v>1169</v>
       </c>
       <c r="B292" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D292">
         <v>909</v>
       </c>
       <c r="E292" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F292" t="s">
         <v>1170</v>
@@ -17918,13 +17915,13 @@
         <v>99</v>
       </c>
       <c r="S292" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T292">
         <v>2</v>
       </c>
       <c r="U292" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V292">
         <v>202</v>
@@ -17953,7 +17950,7 @@
         <v>910</v>
       </c>
       <c r="E293" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="F293" t="s">
         <v>1168</v>
@@ -17965,13 +17962,13 @@
         <v>99</v>
       </c>
       <c r="S293" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T293">
         <v>142</v>
       </c>
       <c r="U293" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V293">
         <v>34</v>
@@ -17982,19 +17979,19 @@
     </row>
     <row r="294" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B294" t="s">
         <v>1245</v>
-      </c>
-      <c r="B294" t="s">
-        <v>1246</v>
       </c>
       <c r="D294">
         <v>911</v>
       </c>
       <c r="E294" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F294" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I294" t="s">
         <v>973</v>
@@ -18012,13 +18009,13 @@
         <v>99</v>
       </c>
       <c r="S294" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T294">
         <v>142</v>
       </c>
       <c r="U294" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V294">
         <v>145</v>
@@ -18038,7 +18035,7 @@
         <v>912</v>
       </c>
       <c r="E295" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F295" t="s">
         <v>1165</v>
@@ -18047,13 +18044,13 @@
         <v>99</v>
       </c>
       <c r="S295" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T295">
         <v>19</v>
       </c>
       <c r="U295" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V295">
         <v>21</v>
@@ -18073,7 +18070,7 @@
         <v>913</v>
       </c>
       <c r="E296" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F296" t="s">
         <v>1140</v>
@@ -18088,13 +18085,13 @@
         <v>99</v>
       </c>
       <c r="S296" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T296">
         <v>2</v>
       </c>
       <c r="U296" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V296">
         <v>202</v>
@@ -18120,7 +18117,7 @@
         <v>914</v>
       </c>
       <c r="E297" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F297" t="s">
         <v>1141</v>
@@ -18129,13 +18126,13 @@
         <v>99</v>
       </c>
       <c r="S297" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T297">
         <v>19</v>
       </c>
       <c r="U297" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V297">
         <v>419</v>
@@ -18161,7 +18158,7 @@
         <v>915</v>
       </c>
       <c r="E298" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F298" t="s">
         <v>1173</v>
@@ -18170,13 +18167,13 @@
         <v>99</v>
       </c>
       <c r="S298" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T298">
         <v>150</v>
       </c>
       <c r="U298" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V298">
         <v>39</v>
@@ -18187,7 +18184,7 @@
     </row>
     <row r="299" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B299" t="s">
         <v>1124</v>
@@ -18196,7 +18193,7 @@
         <v>916</v>
       </c>
       <c r="E299" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F299" t="s">
         <v>1142</v>
@@ -18211,13 +18208,13 @@
         <v>99</v>
       </c>
       <c r="S299" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T299">
         <v>2</v>
       </c>
       <c r="U299" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V299">
         <v>202</v>
@@ -18234,7 +18231,7 @@
     </row>
     <row r="300" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B300" t="s">
         <v>1124</v>
@@ -18243,7 +18240,7 @@
         <v>916</v>
       </c>
       <c r="E300" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F300" t="s">
         <v>1142</v>
@@ -18267,13 +18264,13 @@
         <v>99</v>
       </c>
       <c r="S300" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T300">
         <v>2</v>
       </c>
       <c r="U300" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V300">
         <v>202</v>
@@ -18290,7 +18287,7 @@
     </row>
     <row r="301" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B301" t="s">
         <v>1124</v>
@@ -18299,7 +18296,7 @@
         <v>916</v>
       </c>
       <c r="E301" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F301" t="s">
         <v>1142</v>
@@ -18323,13 +18320,13 @@
         <v>99</v>
       </c>
       <c r="S301" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T301">
         <v>2</v>
       </c>
       <c r="U301" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V301">
         <v>202</v>
@@ -18358,7 +18355,7 @@
         <v>917</v>
       </c>
       <c r="E302" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F302" t="s">
         <v>1144</v>
@@ -18376,13 +18373,13 @@
         <v>99</v>
       </c>
       <c r="S302" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T302">
         <v>142</v>
       </c>
       <c r="U302" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V302">
         <v>34</v>
@@ -18391,7 +18388,7 @@
         <v>4</v>
       </c>
       <c r="AD302" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="303" spans="1:30" x14ac:dyDescent="0.15">
@@ -18399,13 +18396,13 @@
         <v>1008</v>
       </c>
       <c r="B303" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D303">
         <v>918</v>
       </c>
       <c r="E303" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F303" t="s">
         <v>1161</v>
@@ -18414,13 +18411,13 @@
         <v>99</v>
       </c>
       <c r="S303" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T303">
         <v>142</v>
       </c>
       <c r="U303" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V303">
         <v>145</v>
@@ -18431,19 +18428,19 @@
     </row>
     <row r="304" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B304" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D304">
         <v>919</v>
       </c>
       <c r="E304" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F304" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="K304" t="s">
         <v>805</v>
@@ -18455,13 +18452,13 @@
         <v>99</v>
       </c>
       <c r="S304" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T304">
         <v>142</v>
       </c>
       <c r="U304" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V304">
         <v>34</v>
@@ -18472,19 +18469,19 @@
     </row>
     <row r="305" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B305" t="s">
         <v>1217</v>
-      </c>
-      <c r="B305" t="s">
-        <v>1218</v>
       </c>
       <c r="D305">
         <v>920</v>
       </c>
       <c r="E305" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F305" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="L305" t="s">
         <v>866</v>
@@ -18493,13 +18490,13 @@
         <v>99</v>
       </c>
       <c r="S305" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T305">
         <v>142</v>
       </c>
       <c r="U305" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V305">
         <v>34</v>
@@ -18519,7 +18516,7 @@
         <v>921</v>
       </c>
       <c r="E306" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F306" t="s">
         <v>1174</v>
@@ -18534,13 +18531,13 @@
         <v>99</v>
       </c>
       <c r="S306" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T306">
         <v>142</v>
       </c>
       <c r="U306" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V306">
         <v>30</v>
@@ -18560,7 +18557,7 @@
         <v>922</v>
       </c>
       <c r="E307" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="F307" t="s">
         <v>1177</v>
@@ -18581,13 +18578,13 @@
         <v>99</v>
       </c>
       <c r="S307" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T307">
         <v>2</v>
       </c>
       <c r="U307" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V307">
         <v>202</v>
@@ -18613,7 +18610,7 @@
         <v>923</v>
       </c>
       <c r="E308" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F308" t="s">
         <v>1143</v>
@@ -18622,13 +18619,13 @@
         <v>99</v>
       </c>
       <c r="S308" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T308">
         <v>2</v>
       </c>
       <c r="U308" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V308">
         <v>202</v>
@@ -18645,19 +18642,19 @@
     </row>
     <row r="309" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B309" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D309">
         <v>924</v>
       </c>
       <c r="E309" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="F309" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="K309" t="s">
         <v>805</v>
@@ -18669,13 +18666,13 @@
         <v>99</v>
       </c>
       <c r="S309" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T309">
         <v>142</v>
       </c>
       <c r="U309" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V309">
         <v>34</v>
@@ -18719,13 +18716,13 @@
         <v>7</v>
       </c>
       <c r="S310" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="T310">
         <v>150</v>
       </c>
       <c r="U310" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V310">
         <v>39</v>
@@ -18736,19 +18733,19 @@
     </row>
     <row r="311" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B311" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D311">
         <v>926</v>
       </c>
       <c r="E311" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F311" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="K311" t="s">
         <v>805</v>
@@ -18760,13 +18757,13 @@
         <v>99</v>
       </c>
       <c r="S311" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T311">
         <v>142</v>
       </c>
       <c r="U311" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V311">
         <v>34</v>
@@ -18786,7 +18783,7 @@
         <v>927</v>
       </c>
       <c r="E312" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="F312" t="s">
         <v>1146</v>
@@ -18795,13 +18792,13 @@
         <v>99</v>
       </c>
       <c r="S312" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T312">
         <v>142</v>
       </c>
       <c r="U312" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V312">
         <v>30</v>
@@ -18821,7 +18818,7 @@
         <v>928</v>
       </c>
       <c r="E313" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F313" t="s">
         <v>1148</v>
@@ -18830,13 +18827,13 @@
         <v>99</v>
       </c>
       <c r="S313" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T313">
         <v>19</v>
       </c>
       <c r="U313" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="V313">
         <v>21</v>
@@ -18856,7 +18853,7 @@
         <v>929</v>
       </c>
       <c r="E314" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F314" t="s">
         <v>1151</v>
@@ -18865,13 +18862,13 @@
         <v>99</v>
       </c>
       <c r="S314" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T314">
         <v>150</v>
       </c>
       <c r="U314" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V314">
         <v>155</v>
@@ -18882,7 +18879,7 @@
     </row>
     <row r="315" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B315" t="s">
         <v>1178</v>
@@ -18891,7 +18888,7 @@
         <v>930</v>
       </c>
       <c r="E315" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F315" t="s">
         <v>1152</v>
@@ -18900,13 +18897,13 @@
         <v>8</v>
       </c>
       <c r="S315" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="T315">
         <v>150</v>
       </c>
       <c r="U315" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V315">
         <v>155</v>
@@ -18926,7 +18923,7 @@
         <v>931</v>
       </c>
       <c r="E316" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F316" t="s">
         <v>1153</v>
@@ -18941,13 +18938,13 @@
         <v>99</v>
       </c>
       <c r="S316" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T316">
         <v>2</v>
       </c>
       <c r="U316" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V316">
         <v>15</v>
@@ -18967,7 +18964,7 @@
         <v>932</v>
       </c>
       <c r="E317" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F317" t="s">
         <v>1155</v>
@@ -18976,13 +18973,13 @@
         <v>8</v>
       </c>
       <c r="S317" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="T317">
         <v>150</v>
       </c>
       <c r="U317" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V317">
         <v>155</v>
@@ -19002,7 +18999,7 @@
         <v>933</v>
       </c>
       <c r="E318" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F318" t="s">
         <v>1156</v>
@@ -19014,13 +19011,13 @@
         <v>99</v>
       </c>
       <c r="S318" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T318">
         <v>142</v>
       </c>
       <c r="U318" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V318">
         <v>35</v>
@@ -19040,7 +19037,7 @@
         <v>934</v>
       </c>
       <c r="E319" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F319" t="s">
         <v>1158</v>
@@ -19052,13 +19049,13 @@
         <v>99</v>
       </c>
       <c r="S319" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T319">
         <v>142</v>
       </c>
       <c r="U319" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V319">
         <v>35</v>
@@ -19078,7 +19075,7 @@
         <v>935</v>
       </c>
       <c r="E320" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F320" t="s">
         <v>1159</v>
@@ -19093,13 +19090,13 @@
         <v>99</v>
       </c>
       <c r="S320" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T320">
         <v>142</v>
       </c>
       <c r="U320" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V320">
         <v>30</v>
@@ -19110,19 +19107,19 @@
     </row>
     <row r="321" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B321" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D321">
         <v>936</v>
       </c>
       <c r="E321" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F321" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="K321" t="s">
         <v>805</v>
@@ -19134,13 +19131,13 @@
         <v>99</v>
       </c>
       <c r="S321" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T321">
         <v>142</v>
       </c>
       <c r="U321" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V321">
         <v>34</v>
@@ -19160,7 +19157,7 @@
         <v>937</v>
       </c>
       <c r="E322" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F322" t="s">
         <v>1157</v>
@@ -19172,13 +19169,13 @@
         <v>99</v>
       </c>
       <c r="S322" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T322">
         <v>142</v>
       </c>
       <c r="U322" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V322">
         <v>35</v>
@@ -19189,19 +19186,19 @@
     </row>
     <row r="323" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B323" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D323">
         <v>938</v>
       </c>
       <c r="E323" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F323" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I323" t="s">
         <v>1125</v>
@@ -19213,13 +19210,13 @@
         <v>99</v>
       </c>
       <c r="S323" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T323">
         <v>142</v>
       </c>
       <c r="U323" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V323">
         <v>34</v>
@@ -19233,16 +19230,16 @@
         <v>1019</v>
       </c>
       <c r="B324" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C324" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D324">
         <v>939</v>
       </c>
       <c r="E324" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F324" t="s">
         <v>1160</v>
@@ -19254,13 +19251,13 @@
         <v>5</v>
       </c>
       <c r="S324" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T324">
         <v>142</v>
       </c>
       <c r="U324" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V324">
         <v>145</v>
@@ -19274,16 +19271,16 @@
         <v>1020</v>
       </c>
       <c r="B325" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C325" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D325">
         <v>939</v>
       </c>
       <c r="E325" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F325" t="s">
         <v>1160</v>
@@ -19295,13 +19292,13 @@
         <v>5</v>
       </c>
       <c r="S325" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="T325">
         <v>142</v>
       </c>
       <c r="U325" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V325">
         <v>145</v>

--- a/inputs/lsib_extension/adm0_points.xlsx
+++ b/inputs/lsib_extension/adm0_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/computer/GitHub/fieldmaps/adm0-generator/inputs/lsib_extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DE1824-104D-404E-A8FC-B966A0928269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E72DA9-B0FC-C94B-BC02-CE7301BE589C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="25700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="adm0_points" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">adm0_points!$A$1:$AE$319</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">adm0_points!$A$1:$AF$319</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885" uniqueCount="1352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="1353">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -4093,6 +4093,9 @@
   </si>
   <si>
     <t>wld_notes</t>
+  </si>
+  <si>
+    <t>wld_view</t>
   </si>
 </sst>
 </file>
@@ -4447,7 +4450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE325"/>
+  <dimension ref="A1:AF325"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -4479,10 +4482,11 @@
     <col min="28" max="28" width="25.5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="161.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="161.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1022</v>
       </c>
@@ -4574,10 +4578,13 @@
         <v>1350</v>
       </c>
       <c r="AE1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="AF1" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>760</v>
       </c>
@@ -4624,7 +4631,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>761</v>
       </c>
@@ -4662,7 +4669,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>762</v>
       </c>
@@ -4706,7 +4713,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>763</v>
       </c>
@@ -4753,7 +4760,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>1023</v>
       </c>
@@ -4794,7 +4801,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>764</v>
       </c>
@@ -4832,7 +4839,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>765</v>
       </c>
@@ -4870,7 +4877,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>766</v>
       </c>
@@ -4908,7 +4915,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>767</v>
       </c>
@@ -4952,7 +4959,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>768</v>
       </c>
@@ -4990,7 +4997,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>769</v>
       </c>
@@ -5031,7 +5038,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>770</v>
       </c>
@@ -5057,7 +5064,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>1240</v>
       </c>
@@ -5104,7 +5111,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>1241</v>
       </c>
@@ -5151,7 +5158,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>1242</v>
       </c>
@@ -7903,7 +7910,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>825</v>
       </c>
@@ -7947,7 +7954,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>826</v>
       </c>
@@ -7994,7 +8001,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>827</v>
       </c>
@@ -8032,7 +8039,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>828</v>
       </c>
@@ -8070,7 +8077,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>829</v>
       </c>
@@ -8108,7 +8115,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>830</v>
       </c>
@@ -8146,7 +8153,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>831</v>
       </c>
@@ -8190,7 +8197,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>832</v>
       </c>
@@ -8228,7 +8235,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>833</v>
       </c>
@@ -8266,7 +8273,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>834</v>
       </c>
@@ -8312,11 +8319,11 @@
       <c r="AB90" t="s">
         <v>1333</v>
       </c>
-      <c r="AE90" t="s">
+      <c r="AF90" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>835</v>
       </c>
@@ -8354,7 +8361,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>836</v>
       </c>
@@ -8395,7 +8402,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>837</v>
       </c>
@@ -8433,7 +8440,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>838</v>
       </c>
@@ -8477,7 +8484,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>839</v>
       </c>
@@ -8515,7 +8522,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>1031</v>
       </c>
@@ -9269,7 +9276,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>854</v>
       </c>
@@ -9313,7 +9320,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>855</v>
       </c>
@@ -9357,7 +9364,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>856</v>
       </c>
@@ -9398,7 +9405,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>857</v>
       </c>
@@ -9442,7 +9449,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>858</v>
       </c>
@@ -9480,7 +9487,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>859</v>
       </c>
@@ -9524,7 +9531,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>860</v>
       </c>
@@ -9562,7 +9569,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>861</v>
       </c>
@@ -9600,7 +9607,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>862</v>
       </c>
@@ -9641,7 +9648,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>863</v>
       </c>
@@ -9679,7 +9686,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>864</v>
       </c>
@@ -9725,11 +9732,11 @@
       <c r="AB123" t="s">
         <v>1328</v>
       </c>
-      <c r="AE123" t="s">
+      <c r="AF123" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>865</v>
       </c>
@@ -9767,7 +9774,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>866</v>
       </c>
@@ -9805,7 +9812,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>867</v>
       </c>
@@ -9843,7 +9850,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>868</v>
       </c>
@@ -9881,7 +9888,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>869</v>
       </c>
@@ -13166,7 +13173,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>946</v>
       </c>
@@ -13204,7 +13211,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>947</v>
       </c>
@@ -13242,7 +13249,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>948</v>
       </c>
@@ -13286,7 +13293,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>949</v>
       </c>
@@ -13324,7 +13331,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>950</v>
       </c>
@@ -13361,11 +13368,11 @@
       <c r="AB213" t="s">
         <v>1330</v>
       </c>
-      <c r="AE213" t="s">
+      <c r="AF213" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>951</v>
       </c>
@@ -13409,7 +13416,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>952</v>
       </c>
@@ -13447,7 +13454,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>953</v>
       </c>
@@ -13494,7 +13501,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>1078</v>
       </c>
@@ -13541,7 +13548,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>1081</v>
       </c>
@@ -13588,7 +13595,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>1083</v>
       </c>
@@ -13635,7 +13642,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>1085</v>
       </c>
@@ -13682,7 +13689,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>1176</v>
       </c>
@@ -13723,7 +13730,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>954</v>
       </c>
@@ -13764,7 +13771,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="223" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>955</v>
       </c>
@@ -13802,7 +13809,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>956</v>
       </c>
@@ -13846,7 +13853,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="225" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>957</v>
       </c>
@@ -13890,7 +13897,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="226" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>958</v>
       </c>
@@ -13928,7 +13935,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="227" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>959</v>
       </c>
@@ -13972,7 +13979,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="228" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>960</v>
       </c>
@@ -14013,7 +14020,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="229" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>1088</v>
       </c>
@@ -14051,7 +14058,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="230" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>1089</v>
       </c>
@@ -14104,7 +14111,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="231" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>961</v>
       </c>
@@ -14147,11 +14154,11 @@
       <c r="AB231" t="s">
         <v>1330</v>
       </c>
-      <c r="AE231" t="s">
+      <c r="AF231" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="232" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>962</v>
       </c>
@@ -14195,7 +14202,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="233" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>963</v>
       </c>
@@ -14239,7 +14246,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="234" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>964</v>
       </c>
@@ -14277,7 +14284,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="235" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>965</v>
       </c>
@@ -14315,7 +14322,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="236" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>966</v>
       </c>
@@ -14353,7 +14360,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="237" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>967</v>
       </c>
@@ -14397,7 +14404,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="238" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>968</v>
       </c>
@@ -14444,7 +14451,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="239" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>969</v>
       </c>
@@ -14488,7 +14495,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="240" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>970</v>
       </c>
@@ -15841,7 +15848,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="273" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>1212</v>
       </c>
@@ -15885,7 +15892,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="274" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>995</v>
       </c>
@@ -15932,7 +15939,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="275" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>996</v>
       </c>
@@ -15979,7 +15986,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="276" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>997</v>
       </c>
@@ -16017,7 +16024,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="277" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>998</v>
       </c>
@@ -16055,7 +16062,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="278" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>999</v>
       </c>
@@ -16096,7 +16103,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="279" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>1000</v>
       </c>
@@ -16134,7 +16141,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="280" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>1018</v>
       </c>
@@ -16172,7 +16179,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="281" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>1019</v>
       </c>
@@ -16216,7 +16223,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="282" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>1020</v>
       </c>
@@ -16260,7 +16267,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="283" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>1021</v>
       </c>
@@ -16304,7 +16311,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="284" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>1001</v>
       </c>
@@ -16347,11 +16354,11 @@
       <c r="AB284" t="s">
         <v>1339</v>
       </c>
-      <c r="AE284" t="s">
+      <c r="AF284" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="285" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>1002</v>
       </c>
@@ -16392,7 +16399,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="286" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>1227</v>
       </c>
@@ -16441,11 +16448,11 @@
       <c r="AB286" t="s">
         <v>1339</v>
       </c>
-      <c r="AE286" t="s">
+      <c r="AF286" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="287" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>1112</v>
       </c>
@@ -16489,7 +16496,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="288" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>1262</v>
       </c>
@@ -16530,7 +16537,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="289" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>1261</v>
       </c>
@@ -16571,7 +16578,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="290" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>1217</v>
       </c>
@@ -16612,7 +16619,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="291" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>1204</v>
       </c>
@@ -16653,7 +16660,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="292" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>1165</v>
       </c>
@@ -16694,7 +16701,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="293" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>1162</v>
       </c>
@@ -16732,7 +16739,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="294" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>1233</v>
       </c>
@@ -16779,7 +16786,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="295" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>1159</v>
       </c>
@@ -16814,7 +16821,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="296" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>1003</v>
       </c>
@@ -16861,7 +16868,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="297" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>1004</v>
       </c>
@@ -16902,7 +16909,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="298" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>1168</v>
       </c>
@@ -16937,7 +16944,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="299" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>1222</v>
       </c>
@@ -16984,7 +16991,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="300" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>1223</v>
       </c>
@@ -17040,7 +17047,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="301" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>1254</v>
       </c>
@@ -17096,7 +17103,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="302" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>1121</v>
       </c>
@@ -17142,11 +17149,11 @@
       <c r="AB302" t="s">
         <v>1339</v>
       </c>
-      <c r="AE302" t="s">
+      <c r="AF302" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="303" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>1005</v>
       </c>
@@ -17181,7 +17188,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="304" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>1265</v>
       </c>
@@ -18063,7 +18070,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE283">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF283">
     <sortCondition ref="A2:A283"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/inputs/lsib_extension/adm0_points.xlsx
+++ b/inputs/lsib_extension/adm0_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/computer/GitHub/fieldmaps/adm0-generator/inputs/lsib_extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EC1D3D-8FFC-9842-9482-79D5848BFB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F161899C-1F4F-A940-B913-9FF4698AE3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4095,7 +4095,7 @@
     <t>Côte d'Ivoire</t>
   </si>
   <si>
-    <t>Kingdom of Eswatini</t>
+    <t>Eswatini</t>
   </si>
 </sst>
 </file>
